--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_b2.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_b2.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_huang")] I don't care, even if every drop of blood in this body is to run dry…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_huang")] I don't care, even if every drop of blood in this body is to run dry...
 </t>
   </si>
   <si>
